--- a/tests/data/desired/multilayoutreport.xlsx
+++ b/tests/data/desired/multilayoutreport.xlsx
@@ -1689,10 +1689,10 @@
       <c r="A32" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="3" t="n">
         <v>31.0</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D32" s="3" t="inlineStr">
@@ -3214,10 +3214,10 @@
       <c r="A63" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="3" t="n">
         <v>62.0</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D63" s="3" t="inlineStr">
@@ -4690,10 +4690,10 @@
       <c r="A93" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="3" t="n">
         <v>92.0</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -4745,10 +4745,10 @@
       <c r="A94" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="3" t="n">
         <v>92.0</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D94" s="4" t="n">
@@ -4800,10 +4800,10 @@
       <c r="A95" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="3" t="n">
         <v>93.0</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -4855,10 +4855,10 @@
       <c r="A96" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="3" t="n">
         <v>94.0</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D96" s="3" t="inlineStr">
@@ -4910,10 +4910,10 @@
       <c r="A97" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" s="3" t="n">
         <v>94.0</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D97" s="4" t="n">
@@ -4965,10 +4965,10 @@
       <c r="A98" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" s="3" t="n">
         <v>95.0</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -5020,10 +5020,10 @@
       <c r="A99" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="3" t="n">
         <v>95.0</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D99" s="4" t="n">
@@ -5075,10 +5075,10 @@
       <c r="A100" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="3" t="n">
         <v>96.0</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D100" s="3" t="inlineStr">
@@ -5130,10 +5130,10 @@
       <c r="A101" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="3" t="n">
         <v>96.0</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D101" s="4" t="n">
@@ -5185,10 +5185,10 @@
       <c r="A102" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="3" t="n">
         <v>97.0</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D102" s="3" t="inlineStr">
@@ -5240,10 +5240,10 @@
       <c r="A103" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" s="3" t="n">
         <v>97.0</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D103" s="4" t="n">
@@ -5295,10 +5295,10 @@
       <c r="A104" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="3" t="n">
         <v>98.0</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D104" s="3" t="inlineStr">
@@ -5350,10 +5350,10 @@
       <c r="A105" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" s="3" t="n">
         <v>98.0</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D105" s="4" t="n">
@@ -5405,10 +5405,10 @@
       <c r="A106" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="3" t="n">
         <v>99.0</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D106" s="3" t="inlineStr">
@@ -5460,10 +5460,10 @@
       <c r="A107" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" s="3" t="n">
         <v>99.0</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D107" s="4" t="n">
@@ -6691,10 +6691,10 @@
       <c r="A132" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" s="3" t="n">
         <v>124.0</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D132" s="3" t="inlineStr">
@@ -7138,10 +7138,10 @@
       <c r="A141" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" s="3" t="n">
         <v>133.0</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D141" s="4" t="n">
@@ -8222,10 +8222,10 @@
       <c r="A163" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" s="3" t="n">
         <v>155.0</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D163" s="3" t="inlineStr">
@@ -9747,10 +9747,10 @@
       <c r="A194" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194" s="3" t="n">
         <v>186.0</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D194" s="3" t="inlineStr">
@@ -10047,10 +10047,10 @@
       <c r="A200" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200" s="3" t="n">
         <v>192.0</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D200" s="3" t="inlineStr">
@@ -10102,10 +10102,10 @@
       <c r="A201" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201" s="3" t="n">
         <v>192.0</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D201" s="4" t="n">
@@ -10157,10 +10157,10 @@
       <c r="A202" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202" s="3" t="n">
         <v>193.0</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D202" s="3" t="inlineStr">
@@ -10212,10 +10212,10 @@
       <c r="A203" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203" s="3" t="n">
         <v>193.0</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D203" s="4" t="n">
@@ -10267,10 +10267,10 @@
       <c r="A204" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204" s="3" t="n">
         <v>194.0</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D204" s="3" t="inlineStr">
@@ -10322,10 +10322,10 @@
       <c r="A205" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205" s="3" t="n">
         <v>194.0</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D205" s="4" t="n">
@@ -10377,10 +10377,10 @@
       <c r="A206" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206" s="3" t="n">
         <v>195.0</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D206" s="3" t="inlineStr">
@@ -10432,10 +10432,10 @@
       <c r="A207" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207" s="3" t="n">
         <v>195.0</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D207" s="4" t="n">
@@ -10487,10 +10487,10 @@
       <c r="A208" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208" s="3" t="n">
         <v>196.0</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D208" s="3" t="inlineStr">
@@ -10542,10 +10542,10 @@
       <c r="A209" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209" s="3" t="n">
         <v>196.0</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D209" s="4" t="n">
@@ -10597,10 +10597,10 @@
       <c r="A210" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210" s="3" t="n">
         <v>197.0</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D210" s="3" t="inlineStr">
@@ -10652,10 +10652,10 @@
       <c r="A211" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211" s="3" t="n">
         <v>197.0</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D211" s="4" t="n">
@@ -10707,10 +10707,10 @@
       <c r="A212" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212" s="3" t="n">
         <v>198.0</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D212" s="3" t="inlineStr">
@@ -10762,10 +10762,10 @@
       <c r="A213" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213" s="3" t="n">
         <v>198.0</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D213" s="4" t="n">
@@ -10817,10 +10817,10 @@
       <c r="A214" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214" s="3" t="n">
         <v>199.0</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D214" s="3" t="inlineStr">
@@ -10872,10 +10872,10 @@
       <c r="A215" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215" s="3" t="n">
         <v>199.0</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D215" s="4" t="n">
@@ -11760,10 +11760,10 @@
       <c r="A233" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233" s="3" t="n">
         <v>217.0</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D233" s="3" t="inlineStr">
@@ -13285,10 +13285,10 @@
       <c r="A264" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264" s="3" t="n">
         <v>248.0</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D264" s="3" t="inlineStr">
@@ -14173,10 +14173,10 @@
       <c r="A282" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282" s="3" t="n">
         <v>266.0</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D282" s="4" t="n">
@@ -14816,10 +14816,10 @@
       <c r="A295" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295" s="3" t="n">
         <v>279.0</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D295" s="3" t="inlineStr">
@@ -15459,10 +15459,10 @@
       <c r="A308" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308" s="3" t="n">
         <v>292.0</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D308" s="3" t="inlineStr">
@@ -15514,10 +15514,10 @@
       <c r="A309" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309" s="3" t="n">
         <v>292.0</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D309" s="4" t="n">
@@ -15569,10 +15569,10 @@
       <c r="A310" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310" s="3" t="n">
         <v>293.0</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D310" s="3" t="inlineStr">
@@ -15624,10 +15624,10 @@
       <c r="A311" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311" s="3" t="n">
         <v>293.0</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D311" s="4" t="n">
@@ -15679,10 +15679,10 @@
       <c r="A312" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312" s="3" t="n">
         <v>294.0</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D312" s="3" t="inlineStr">
@@ -15734,10 +15734,10 @@
       <c r="A313" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313" s="3" t="n">
         <v>294.0</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D313" s="4" t="n">
@@ -15789,10 +15789,10 @@
       <c r="A314" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314" s="3" t="n">
         <v>295.0</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D314" s="3" t="inlineStr">
@@ -15844,10 +15844,10 @@
       <c r="A315" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315" s="3" t="n">
         <v>295.0</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D315" s="4" t="n">
@@ -15899,10 +15899,10 @@
       <c r="A316" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316" s="3" t="n">
         <v>296.0</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D316" s="3" t="inlineStr">
@@ -15954,10 +15954,10 @@
       <c r="A317" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317" s="3" t="n">
         <v>296.0</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D317" s="4" t="n">
@@ -16009,10 +16009,10 @@
       <c r="A318" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318" s="3" t="n">
         <v>297.0</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D318" s="3" t="inlineStr">
@@ -16064,10 +16064,10 @@
       <c r="A319" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319" s="3" t="n">
         <v>297.0</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D319" s="4" t="n">
@@ -16119,10 +16119,10 @@
       <c r="A320" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320" s="3" t="n">
         <v>298.0</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D320" s="3" t="inlineStr">
@@ -16174,10 +16174,10 @@
       <c r="A321" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321" s="3" t="n">
         <v>298.0</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D321" s="4" t="n">
@@ -16229,10 +16229,10 @@
       <c r="A322" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322" s="3" t="n">
         <v>299.0</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D322" s="3" t="inlineStr">
@@ -16284,10 +16284,10 @@
       <c r="A323" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323" s="3" t="n">
         <v>299.0</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D323" s="4" t="n">
@@ -16829,10 +16829,10 @@
       <c r="A334" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334" s="3" t="n">
         <v>310.0</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D334" s="3" t="inlineStr">
@@ -18354,10 +18354,10 @@
       <c r="A365" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365" s="3" t="n">
         <v>341.0</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D365" s="3" t="inlineStr">
@@ -19879,10 +19879,10 @@
       <c r="A396" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396" s="3" t="n">
         <v>372.0</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C396" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D396" s="3" t="inlineStr">
@@ -20865,10 +20865,10 @@
       <c r="A416" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416" s="3" t="n">
         <v>392.0</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C416" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D416" s="3" t="inlineStr">
@@ -20920,10 +20920,10 @@
       <c r="A417" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417" s="3" t="n">
         <v>392.0</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C417" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D417" s="4" t="n">
@@ -20975,10 +20975,10 @@
       <c r="A418" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418" s="3" t="n">
         <v>393.0</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C418" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D418" s="3" t="inlineStr">
@@ -21030,10 +21030,10 @@
       <c r="A419" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419" s="3" t="n">
         <v>393.0</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C419" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D419" s="4" t="n">
@@ -21085,10 +21085,10 @@
       <c r="A420" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420" s="3" t="n">
         <v>394.0</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C420" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D420" s="3" t="inlineStr">
@@ -21140,10 +21140,10 @@
       <c r="A421" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421" s="3" t="n">
         <v>394.0</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C421" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D421" s="4" t="n">
@@ -21195,10 +21195,10 @@
       <c r="A422" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422" s="3" t="n">
         <v>395.0</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C422" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D422" s="3" t="inlineStr">
@@ -21250,10 +21250,10 @@
       <c r="A423" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423" s="3" t="n">
         <v>395.0</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C423" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D423" s="4" t="n">
@@ -21305,10 +21305,10 @@
       <c r="A424" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424" s="3" t="n">
         <v>396.0</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C424" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D424" s="3" t="inlineStr">
@@ -21360,10 +21360,10 @@
       <c r="A425" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425" s="3" t="n">
         <v>396.0</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C425" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D425" s="4" t="n">
@@ -21415,10 +21415,10 @@
       <c r="A426" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426" s="3" t="n">
         <v>397.0</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C426" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D426" s="3" t="inlineStr">
@@ -21470,10 +21470,10 @@
       <c r="A427" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427" s="3" t="n">
         <v>397.0</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C427" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D427" s="4" t="n">
@@ -21525,10 +21525,10 @@
       <c r="A428" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428" s="3" t="n">
         <v>398.0</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C428" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D428" s="3" t="inlineStr">
@@ -21580,10 +21580,10 @@
       <c r="A429" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429" s="3" t="n">
         <v>398.0</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C429" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D429" s="4" t="n">
@@ -21635,10 +21635,10 @@
       <c r="A430" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430" s="3" t="n">
         <v>399.0</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C430" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D430" s="4" t="n">
@@ -21837,10 +21837,10 @@
       <c r="A434" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434" s="3" t="n">
         <v>403.0</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C434" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D434" s="3" t="inlineStr">
@@ -23362,10 +23362,10 @@
       <c r="A465" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465" s="3" t="n">
         <v>434.0</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C465" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D465" s="3" t="inlineStr">
@@ -24887,10 +24887,10 @@
       <c r="A496" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B496" s="3" t="n">
         <v>465.0</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C496" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D496" s="3" t="inlineStr">
@@ -26216,10 +26216,10 @@
       <c r="A523" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B523" t="n">
+      <c r="B523" s="3" t="n">
         <v>492.0</v>
       </c>
-      <c r="C523" t="n">
+      <c r="C523" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D523" s="3" t="inlineStr">
@@ -26271,10 +26271,10 @@
       <c r="A524" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B524" t="n">
+      <c r="B524" s="3" t="n">
         <v>492.0</v>
       </c>
-      <c r="C524" t="n">
+      <c r="C524" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D524" s="4" t="n">
@@ -26326,10 +26326,10 @@
       <c r="A525" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B525" t="n">
+      <c r="B525" s="3" t="n">
         <v>493.0</v>
       </c>
-      <c r="C525" t="n">
+      <c r="C525" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D525" s="3" t="inlineStr">
@@ -26381,10 +26381,10 @@
       <c r="A526" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B526" t="n">
+      <c r="B526" s="3" t="n">
         <v>493.0</v>
       </c>
-      <c r="C526" t="n">
+      <c r="C526" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D526" s="4" t="n">
@@ -26436,10 +26436,10 @@
       <c r="A527" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B527" t="n">
+      <c r="B527" s="3" t="n">
         <v>494.0</v>
       </c>
-      <c r="C527" t="n">
+      <c r="C527" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D527" s="3" t="inlineStr">
@@ -26491,10 +26491,10 @@
       <c r="A528" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B528" t="n">
+      <c r="B528" s="3" t="n">
         <v>494.0</v>
       </c>
-      <c r="C528" t="n">
+      <c r="C528" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D528" s="4" t="n">
@@ -26546,10 +26546,10 @@
       <c r="A529" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B529" t="n">
+      <c r="B529" s="3" t="n">
         <v>495.0</v>
       </c>
-      <c r="C529" t="n">
+      <c r="C529" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D529" s="3" t="inlineStr">
@@ -26601,10 +26601,10 @@
       <c r="A530" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B530" t="n">
+      <c r="B530" s="3" t="n">
         <v>495.0</v>
       </c>
-      <c r="C530" t="n">
+      <c r="C530" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D530" s="4" t="n">
@@ -26656,10 +26656,10 @@
       <c r="A531" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B531" t="n">
+      <c r="B531" s="3" t="n">
         <v>496.0</v>
       </c>
-      <c r="C531" t="n">
+      <c r="C531" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D531" s="3" t="inlineStr">
@@ -26711,10 +26711,10 @@
       <c r="A532" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B532" t="n">
+      <c r="B532" s="3" t="n">
         <v>497.0</v>
       </c>
-      <c r="C532" t="n">
+      <c r="C532" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D532" s="3" t="inlineStr">
@@ -26766,10 +26766,10 @@
       <c r="A533" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B533" t="n">
+      <c r="B533" s="3" t="n">
         <v>497.0</v>
       </c>
-      <c r="C533" t="n">
+      <c r="C533" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D533" s="4" t="n">
@@ -26821,10 +26821,10 @@
       <c r="A534" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B534" t="n">
+      <c r="B534" s="3" t="n">
         <v>498.0</v>
       </c>
-      <c r="C534" t="n">
+      <c r="C534" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D534" s="3" t="inlineStr">
@@ -26876,10 +26876,10 @@
       <c r="A535" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B535" t="n">
+      <c r="B535" s="3" t="n">
         <v>498.0</v>
       </c>
-      <c r="C535" t="n">
+      <c r="C535" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D535" s="4" t="n">
@@ -26931,10 +26931,10 @@
       <c r="A536" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B536" t="n">
+      <c r="B536" s="3" t="n">
         <v>499.0</v>
       </c>
-      <c r="C536" t="n">
+      <c r="C536" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D536" s="3" t="inlineStr">
@@ -26986,10 +26986,10 @@
       <c r="A537" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B537" t="n">
+      <c r="B537" s="3" t="n">
         <v>499.0</v>
       </c>
-      <c r="C537" t="n">
+      <c r="C537" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D537" s="4" t="n">
@@ -28364,10 +28364,10 @@
       <c r="A565" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B565" t="n">
+      <c r="B565" s="3" t="n">
         <v>527.0</v>
       </c>
-      <c r="C565" t="n">
+      <c r="C565" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D565" s="3" t="inlineStr">
@@ -28615,10 +28615,10 @@
       <c r="A570" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B570" t="n">
+      <c r="B570" s="3" t="n">
         <v>532.0</v>
       </c>
-      <c r="C570" t="n">
+      <c r="C570" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D570" s="4" t="n">
@@ -29895,10 +29895,10 @@
       <c r="A596" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B596" t="n">
+      <c r="B596" s="3" t="n">
         <v>558.0</v>
       </c>
-      <c r="C596" t="n">
+      <c r="C596" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D596" s="3" t="inlineStr">
@@ -31420,10 +31420,10 @@
       <c r="A627" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B627" t="n">
+      <c r="B627" s="3" t="n">
         <v>589.0</v>
       </c>
-      <c r="C627" t="n">
+      <c r="C627" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D627" s="3" t="inlineStr">
@@ -31573,10 +31573,10 @@
       <c r="A630" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B630" t="n">
+      <c r="B630" s="3" t="n">
         <v>592.0</v>
       </c>
-      <c r="C630" t="n">
+      <c r="C630" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D630" s="3" t="inlineStr">
@@ -31628,10 +31628,10 @@
       <c r="A631" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B631" t="n">
+      <c r="B631" s="3" t="n">
         <v>592.0</v>
       </c>
-      <c r="C631" t="n">
+      <c r="C631" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D631" s="4" t="n">
@@ -31683,10 +31683,10 @@
       <c r="A632" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B632" t="n">
+      <c r="B632" s="3" t="n">
         <v>593.0</v>
       </c>
-      <c r="C632" t="n">
+      <c r="C632" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D632" s="3" t="inlineStr">
@@ -31738,10 +31738,10 @@
       <c r="A633" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B633" t="n">
+      <c r="B633" s="3" t="n">
         <v>593.0</v>
       </c>
-      <c r="C633" t="n">
+      <c r="C633" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D633" s="4" t="n">
@@ -31793,10 +31793,10 @@
       <c r="A634" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B634" t="n">
+      <c r="B634" s="3" t="n">
         <v>594.0</v>
       </c>
-      <c r="C634" t="n">
+      <c r="C634" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D634" s="3" t="inlineStr">
@@ -31848,10 +31848,10 @@
       <c r="A635" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B635" t="n">
+      <c r="B635" s="3" t="n">
         <v>594.0</v>
       </c>
-      <c r="C635" t="n">
+      <c r="C635" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D635" s="4" t="n">
@@ -31903,10 +31903,10 @@
       <c r="A636" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B636" t="n">
+      <c r="B636" s="3" t="n">
         <v>595.0</v>
       </c>
-      <c r="C636" t="n">
+      <c r="C636" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D636" s="3" t="inlineStr">
@@ -31958,10 +31958,10 @@
       <c r="A637" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B637" t="n">
+      <c r="B637" s="3" t="n">
         <v>595.0</v>
       </c>
-      <c r="C637" t="n">
+      <c r="C637" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D637" s="4" t="n">
@@ -32013,10 +32013,10 @@
       <c r="A638" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B638" t="n">
+      <c r="B638" s="3" t="n">
         <v>596.0</v>
       </c>
-      <c r="C638" t="n">
+      <c r="C638" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D638" s="3" t="inlineStr">
@@ -32068,10 +32068,10 @@
       <c r="A639" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B639" t="n">
+      <c r="B639" s="3" t="n">
         <v>596.0</v>
       </c>
-      <c r="C639" t="n">
+      <c r="C639" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D639" s="4" t="n">
@@ -32123,10 +32123,10 @@
       <c r="A640" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B640" t="n">
+      <c r="B640" s="3" t="n">
         <v>597.0</v>
       </c>
-      <c r="C640" t="n">
+      <c r="C640" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D640" s="3" t="inlineStr">
@@ -32178,10 +32178,10 @@
       <c r="A641" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B641" t="n">
+      <c r="B641" s="3" t="n">
         <v>597.0</v>
       </c>
-      <c r="C641" t="n">
+      <c r="C641" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D641" s="4" t="n">
@@ -32233,10 +32233,10 @@
       <c r="A642" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B642" t="n">
+      <c r="B642" s="3" t="n">
         <v>598.0</v>
       </c>
-      <c r="C642" t="n">
+      <c r="C642" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D642" s="3" t="inlineStr">
@@ -32288,10 +32288,10 @@
       <c r="A643" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B643" t="n">
+      <c r="B643" s="3" t="n">
         <v>598.0</v>
       </c>
-      <c r="C643" t="n">
+      <c r="C643" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D643" s="4" t="n">
@@ -32343,10 +32343,10 @@
       <c r="A644" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B644" t="n">
+      <c r="B644" s="3" t="n">
         <v>599.0</v>
       </c>
-      <c r="C644" t="n">
+      <c r="C644" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D644" s="3" t="inlineStr">
@@ -32398,10 +32398,10 @@
       <c r="A645" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B645" t="n">
+      <c r="B645" s="3" t="n">
         <v>599.0</v>
       </c>
-      <c r="C645" t="n">
+      <c r="C645" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D645" s="4" t="n">
@@ -33433,10 +33433,10 @@
       <c r="A666" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B666" t="n">
+      <c r="B666" s="3" t="n">
         <v>620.0</v>
       </c>
-      <c r="C666" t="n">
+      <c r="C666" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D666" s="3" t="inlineStr">
@@ -34958,10 +34958,10 @@
       <c r="A697" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B697" t="n">
+      <c r="B697" s="3" t="n">
         <v>651.0</v>
       </c>
-      <c r="C697" t="n">
+      <c r="C697" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D697" s="3" t="inlineStr">
@@ -35650,10 +35650,10 @@
       <c r="A711" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B711" t="n">
+      <c r="B711" s="3" t="n">
         <v>665.0</v>
       </c>
-      <c r="C711" t="n">
+      <c r="C711" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D711" s="4" t="n">
@@ -36489,10 +36489,10 @@
       <c r="A728" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B728" t="n">
+      <c r="B728" s="3" t="n">
         <v>682.0</v>
       </c>
-      <c r="C728" t="n">
+      <c r="C728" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D728" s="3" t="inlineStr">
@@ -36985,10 +36985,10 @@
       <c r="A738" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B738" t="n">
+      <c r="B738" s="3" t="n">
         <v>692.0</v>
       </c>
-      <c r="C738" t="n">
+      <c r="C738" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D738" s="3" t="inlineStr">
@@ -37040,10 +37040,10 @@
       <c r="A739" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B739" t="n">
+      <c r="B739" s="3" t="n">
         <v>692.0</v>
       </c>
-      <c r="C739" t="n">
+      <c r="C739" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D739" s="4" t="n">
@@ -37095,10 +37095,10 @@
       <c r="A740" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B740" t="n">
+      <c r="B740" s="3" t="n">
         <v>693.0</v>
       </c>
-      <c r="C740" t="n">
+      <c r="C740" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D740" s="3" t="inlineStr">
@@ -37150,10 +37150,10 @@
       <c r="A741" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B741" t="n">
+      <c r="B741" s="3" t="n">
         <v>693.0</v>
       </c>
-      <c r="C741" t="n">
+      <c r="C741" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D741" s="4" t="n">
@@ -37205,10 +37205,10 @@
       <c r="A742" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B742" t="n">
+      <c r="B742" s="3" t="n">
         <v>694.0</v>
       </c>
-      <c r="C742" t="n">
+      <c r="C742" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D742" s="3" t="inlineStr">
@@ -37260,10 +37260,10 @@
       <c r="A743" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B743" t="n">
+      <c r="B743" s="3" t="n">
         <v>694.0</v>
       </c>
-      <c r="C743" t="n">
+      <c r="C743" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D743" s="4" t="n">
@@ -37315,10 +37315,10 @@
       <c r="A744" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B744" t="n">
+      <c r="B744" s="3" t="n">
         <v>695.0</v>
       </c>
-      <c r="C744" t="n">
+      <c r="C744" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D744" s="3" t="inlineStr">
@@ -37370,10 +37370,10 @@
       <c r="A745" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B745" t="n">
+      <c r="B745" s="3" t="n">
         <v>695.0</v>
       </c>
-      <c r="C745" t="n">
+      <c r="C745" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D745" s="4" t="n">
@@ -37425,10 +37425,10 @@
       <c r="A746" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B746" t="n">
+      <c r="B746" s="3" t="n">
         <v>696.0</v>
       </c>
-      <c r="C746" t="n">
+      <c r="C746" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D746" s="3" t="inlineStr">
@@ -37480,10 +37480,10 @@
       <c r="A747" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B747" t="n">
+      <c r="B747" s="3" t="n">
         <v>696.0</v>
       </c>
-      <c r="C747" t="n">
+      <c r="C747" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D747" s="4" t="n">
@@ -37535,10 +37535,10 @@
       <c r="A748" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B748" t="n">
+      <c r="B748" s="3" t="n">
         <v>697.0</v>
       </c>
-      <c r="C748" t="n">
+      <c r="C748" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D748" s="3" t="inlineStr">
@@ -37590,10 +37590,10 @@
       <c r="A749" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B749" t="n">
+      <c r="B749" s="3" t="n">
         <v>697.0</v>
       </c>
-      <c r="C749" t="n">
+      <c r="C749" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D749" s="4" t="n">
@@ -37645,10 +37645,10 @@
       <c r="A750" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B750" t="n">
+      <c r="B750" s="3" t="n">
         <v>698.0</v>
       </c>
-      <c r="C750" t="n">
+      <c r="C750" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D750" s="3" t="inlineStr">
@@ -37700,10 +37700,10 @@
       <c r="A751" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B751" t="n">
+      <c r="B751" s="3" t="n">
         <v>698.0</v>
       </c>
-      <c r="C751" t="n">
+      <c r="C751" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D751" s="4" t="n">
@@ -37755,10 +37755,10 @@
       <c r="A752" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B752" t="n">
+      <c r="B752" s="3" t="n">
         <v>699.0</v>
       </c>
-      <c r="C752" t="n">
+      <c r="C752" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D752" s="3" t="inlineStr">
@@ -37810,10 +37810,10 @@
       <c r="A753" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B753" t="n">
+      <c r="B753" s="3" t="n">
         <v>699.0</v>
       </c>
-      <c r="C753" t="n">
+      <c r="C753" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D753" s="4" t="n">
@@ -38502,10 +38502,10 @@
       <c r="A767" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B767" t="n">
+      <c r="B767" s="3" t="n">
         <v>713.0</v>
       </c>
-      <c r="C767" t="n">
+      <c r="C767" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D767" s="3" t="inlineStr">
@@ -40027,10 +40027,10 @@
       <c r="A798" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B798" t="n">
+      <c r="B798" s="3" t="n">
         <v>744.0</v>
       </c>
-      <c r="C798" t="n">
+      <c r="C798" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D798" s="3" t="inlineStr">
@@ -41552,10 +41552,10 @@
       <c r="A829" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B829" t="n">
+      <c r="B829" s="3" t="n">
         <v>775.0</v>
       </c>
-      <c r="C829" t="n">
+      <c r="C829" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D829" s="3" t="inlineStr">
@@ -42391,10 +42391,10 @@
       <c r="A846" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B846" t="n">
+      <c r="B846" s="3" t="n">
         <v>792.0</v>
       </c>
-      <c r="C846" t="n">
+      <c r="C846" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D846" s="3" t="inlineStr">
@@ -42446,10 +42446,10 @@
       <c r="A847" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B847" t="n">
+      <c r="B847" s="3" t="n">
         <v>792.0</v>
       </c>
-      <c r="C847" t="n">
+      <c r="C847" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D847" s="4" t="n">
@@ -42501,10 +42501,10 @@
       <c r="A848" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B848" t="n">
+      <c r="B848" s="3" t="n">
         <v>793.0</v>
       </c>
-      <c r="C848" t="n">
+      <c r="C848" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D848" s="3" t="inlineStr">
@@ -42556,10 +42556,10 @@
       <c r="A849" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B849" t="n">
+      <c r="B849" s="3" t="n">
         <v>793.0</v>
       </c>
-      <c r="C849" t="n">
+      <c r="C849" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D849" s="4" t="n">
@@ -42611,10 +42611,10 @@
       <c r="A850" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B850" t="n">
+      <c r="B850" s="3" t="n">
         <v>794.0</v>
       </c>
-      <c r="C850" t="n">
+      <c r="C850" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D850" s="3" t="inlineStr">
@@ -42666,10 +42666,10 @@
       <c r="A851" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B851" t="n">
+      <c r="B851" s="3" t="n">
         <v>794.0</v>
       </c>
-      <c r="C851" t="n">
+      <c r="C851" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D851" s="4" t="n">
@@ -42721,10 +42721,10 @@
       <c r="A852" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B852" t="n">
+      <c r="B852" s="3" t="n">
         <v>795.0</v>
       </c>
-      <c r="C852" t="n">
+      <c r="C852" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D852" s="3" t="inlineStr">
@@ -42776,10 +42776,10 @@
       <c r="A853" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B853" t="n">
+      <c r="B853" s="3" t="n">
         <v>795.0</v>
       </c>
-      <c r="C853" t="n">
+      <c r="C853" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D853" s="4" t="n">
@@ -42831,10 +42831,10 @@
       <c r="A854" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B854" t="n">
+      <c r="B854" s="3" t="n">
         <v>796.0</v>
       </c>
-      <c r="C854" t="n">
+      <c r="C854" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D854" s="3" t="inlineStr">
@@ -42886,10 +42886,10 @@
       <c r="A855" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B855" t="n">
+      <c r="B855" s="3" t="n">
         <v>796.0</v>
       </c>
-      <c r="C855" t="n">
+      <c r="C855" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D855" s="4" t="n">
@@ -42941,10 +42941,10 @@
       <c r="A856" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B856" t="n">
+      <c r="B856" s="3" t="n">
         <v>797.0</v>
       </c>
-      <c r="C856" t="n">
+      <c r="C856" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D856" s="3" t="inlineStr">
@@ -42996,10 +42996,10 @@
       <c r="A857" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B857" t="n">
+      <c r="B857" s="3" t="n">
         <v>797.0</v>
       </c>
-      <c r="C857" t="n">
+      <c r="C857" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D857" s="4" t="n">
@@ -43051,10 +43051,10 @@
       <c r="A858" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B858" t="n">
+      <c r="B858" s="3" t="n">
         <v>798.0</v>
       </c>
-      <c r="C858" t="n">
+      <c r="C858" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D858" s="4" t="n">
@@ -43106,10 +43106,10 @@
       <c r="A859" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B859" t="n">
+      <c r="B859" s="3" t="n">
         <v>799.0</v>
       </c>
-      <c r="C859" t="n">
+      <c r="C859" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D859" s="3" t="inlineStr">
@@ -43161,10 +43161,10 @@
       <c r="A860" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B860" t="n">
+      <c r="B860" s="3" t="n">
         <v>799.0</v>
       </c>
-      <c r="C860" t="n">
+      <c r="C860" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D860" s="4" t="n">
@@ -43510,10 +43510,10 @@
       <c r="A867" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B867" t="n">
+      <c r="B867" s="3" t="n">
         <v>806.0</v>
       </c>
-      <c r="C867" t="n">
+      <c r="C867" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D867" s="3" t="inlineStr">
@@ -45035,10 +45035,10 @@
       <c r="A898" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B898" t="n">
+      <c r="B898" s="3" t="n">
         <v>837.0</v>
       </c>
-      <c r="C898" t="n">
+      <c r="C898" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D898" s="3" t="inlineStr">
@@ -46560,10 +46560,10 @@
       <c r="A929" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B929" t="n">
+      <c r="B929" s="3" t="n">
         <v>868.0</v>
       </c>
-      <c r="C929" t="n">
+      <c r="C929" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D929" s="3" t="inlineStr">
@@ -47742,10 +47742,10 @@
       <c r="A953" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B953" t="n">
+      <c r="B953" s="3" t="n">
         <v>892.0</v>
       </c>
-      <c r="C953" t="n">
+      <c r="C953" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D953" s="3" t="inlineStr">
@@ -47797,10 +47797,10 @@
       <c r="A954" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B954" t="n">
+      <c r="B954" s="3" t="n">
         <v>892.0</v>
       </c>
-      <c r="C954" t="n">
+      <c r="C954" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D954" s="4" t="n">
@@ -47852,10 +47852,10 @@
       <c r="A955" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B955" t="n">
+      <c r="B955" s="3" t="n">
         <v>893.0</v>
       </c>
-      <c r="C955" t="n">
+      <c r="C955" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D955" s="3" t="inlineStr">
@@ -47907,10 +47907,10 @@
       <c r="A956" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B956" t="n">
+      <c r="B956" s="3" t="n">
         <v>893.0</v>
       </c>
-      <c r="C956" t="n">
+      <c r="C956" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D956" s="4" t="n">
@@ -47962,10 +47962,10 @@
       <c r="A957" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B957" t="n">
+      <c r="B957" s="3" t="n">
         <v>894.0</v>
       </c>
-      <c r="C957" t="n">
+      <c r="C957" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D957" s="3" t="inlineStr">
@@ -48017,10 +48017,10 @@
       <c r="A958" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B958" t="n">
+      <c r="B958" s="3" t="n">
         <v>894.0</v>
       </c>
-      <c r="C958" t="n">
+      <c r="C958" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D958" s="4" t="n">
@@ -48072,10 +48072,10 @@
       <c r="A959" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B959" t="n">
+      <c r="B959" s="3" t="n">
         <v>895.0</v>
       </c>
-      <c r="C959" t="n">
+      <c r="C959" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D959" s="3" t="inlineStr">
@@ -48127,10 +48127,10 @@
       <c r="A960" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B960" t="n">
+      <c r="B960" s="3" t="n">
         <v>895.0</v>
       </c>
-      <c r="C960" t="n">
+      <c r="C960" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D960" s="4" t="n">
@@ -48182,10 +48182,10 @@
       <c r="A961" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B961" t="n">
+      <c r="B961" s="3" t="n">
         <v>896.0</v>
       </c>
-      <c r="C961" t="n">
+      <c r="C961" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D961" s="3" t="inlineStr">
@@ -48237,10 +48237,10 @@
       <c r="A962" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B962" t="n">
+      <c r="B962" s="3" t="n">
         <v>896.0</v>
       </c>
-      <c r="C962" t="n">
+      <c r="C962" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D962" s="4" t="n">
@@ -48292,10 +48292,10 @@
       <c r="A963" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B963" t="n">
+      <c r="B963" s="3" t="n">
         <v>897.0</v>
       </c>
-      <c r="C963" t="n">
+      <c r="C963" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D963" s="3" t="inlineStr">
@@ -48347,10 +48347,10 @@
       <c r="A964" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B964" t="n">
+      <c r="B964" s="3" t="n">
         <v>897.0</v>
       </c>
-      <c r="C964" t="n">
+      <c r="C964" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D964" s="4" t="n">
@@ -48402,10 +48402,10 @@
       <c r="A965" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B965" t="n">
+      <c r="B965" s="3" t="n">
         <v>898.0</v>
       </c>
-      <c r="C965" t="n">
+      <c r="C965" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D965" s="3" t="inlineStr">
@@ -48457,10 +48457,10 @@
       <c r="A966" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B966" t="n">
+      <c r="B966" s="3" t="n">
         <v>898.0</v>
       </c>
-      <c r="C966" t="n">
+      <c r="C966" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D966" s="4" t="n">
@@ -48512,10 +48512,10 @@
       <c r="A967" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B967" t="n">
+      <c r="B967" s="3" t="n">
         <v>899.0</v>
       </c>
-      <c r="C967" t="n">
+      <c r="C967" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D967" s="3" t="inlineStr">
@@ -50037,10 +50037,10 @@
       <c r="A998" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B998" t="n">
+      <c r="B998" s="3" t="n">
         <v>930.0</v>
       </c>
-      <c r="C998" t="n">
+      <c r="C998" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D998" s="3" t="inlineStr">
@@ -50092,10 +50092,10 @@
       <c r="A999" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B999" t="n">
+      <c r="B999" s="3" t="n">
         <v>931.0</v>
       </c>
-      <c r="C999" t="n">
+      <c r="C999" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D999" s="4" t="n">
@@ -51568,10 +51568,10 @@
       <c r="A1029" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B1029" t="n">
+      <c r="B1029" s="3" t="n">
         <v>961.0</v>
       </c>
-      <c r="C1029" t="n">
+      <c r="C1029" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D1029" s="3" t="inlineStr">
@@ -53093,10 +53093,10 @@
       <c r="A1060" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B1060" t="n">
+      <c r="B1060" s="3" t="n">
         <v>992.0</v>
       </c>
-      <c r="C1060" t="n">
+      <c r="C1060" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D1060" s="3" t="inlineStr">
@@ -53148,10 +53148,10 @@
       <c r="A1061" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B1061" t="n">
+      <c r="B1061" s="3" t="n">
         <v>993.0</v>
       </c>
-      <c r="C1061" t="n">
+      <c r="C1061" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D1061" s="3" t="inlineStr">
@@ -53203,10 +53203,10 @@
       <c r="A1062" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B1062" t="n">
+      <c r="B1062" s="3" t="n">
         <v>993.0</v>
       </c>
-      <c r="C1062" t="n">
+      <c r="C1062" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D1062" s="4" t="n">
@@ -53258,10 +53258,10 @@
       <c r="A1063" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B1063" t="n">
+      <c r="B1063" s="3" t="n">
         <v>994.0</v>
       </c>
-      <c r="C1063" t="n">
+      <c r="C1063" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D1063" s="3" t="inlineStr">
@@ -53313,10 +53313,10 @@
       <c r="A1064" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B1064" t="n">
+      <c r="B1064" s="3" t="n">
         <v>994.0</v>
       </c>
-      <c r="C1064" t="n">
+      <c r="C1064" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D1064" s="4" t="n">
@@ -53368,10 +53368,10 @@
       <c r="A1065" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B1065" t="n">
+      <c r="B1065" s="3" t="n">
         <v>995.0</v>
       </c>
-      <c r="C1065" t="n">
+      <c r="C1065" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D1065" s="3" t="inlineStr">
@@ -53423,10 +53423,10 @@
       <c r="A1066" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B1066" t="n">
+      <c r="B1066" s="3" t="n">
         <v>995.0</v>
       </c>
-      <c r="C1066" t="n">
+      <c r="C1066" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D1066" s="4" t="n">
@@ -53478,10 +53478,10 @@
       <c r="A1067" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B1067" t="n">
+      <c r="B1067" s="3" t="n">
         <v>996.0</v>
       </c>
-      <c r="C1067" t="n">
+      <c r="C1067" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D1067" s="3" t="inlineStr">
@@ -53533,10 +53533,10 @@
       <c r="A1068" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B1068" t="n">
+      <c r="B1068" s="3" t="n">
         <v>996.0</v>
       </c>
-      <c r="C1068" t="n">
+      <c r="C1068" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D1068" s="4" t="n">
@@ -53588,10 +53588,10 @@
       <c r="A1069" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B1069" t="n">
+      <c r="B1069" s="3" t="n">
         <v>997.0</v>
       </c>
-      <c r="C1069" t="n">
+      <c r="C1069" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D1069" s="3" t="inlineStr">
@@ -53643,10 +53643,10 @@
       <c r="A1070" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B1070" t="n">
+      <c r="B1070" s="3" t="n">
         <v>997.0</v>
       </c>
-      <c r="C1070" t="n">
+      <c r="C1070" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D1070" s="4" t="n">
@@ -53698,10 +53698,10 @@
       <c r="A1071" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B1071" t="n">
+      <c r="B1071" s="3" t="n">
         <v>998.0</v>
       </c>
-      <c r="C1071" t="n">
+      <c r="C1071" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D1071" s="3" t="inlineStr">
@@ -53753,10 +53753,10 @@
       <c r="A1072" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B1072" t="n">
+      <c r="B1072" s="3" t="n">
         <v>998.0</v>
       </c>
-      <c r="C1072" t="n">
+      <c r="C1072" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D1072" s="4" t="n">
@@ -53808,10 +53808,10 @@
       <c r="A1073" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B1073" t="n">
+      <c r="B1073" s="3" t="n">
         <v>999.0</v>
       </c>
-      <c r="C1073" t="n">
+      <c r="C1073" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D1073" s="3" t="inlineStr">
@@ -53863,10 +53863,10 @@
       <c r="A1074" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B1074" t="n">
+      <c r="B1074" s="3" t="n">
         <v>999.0</v>
       </c>
-      <c r="C1074" t="n">
+      <c r="C1074" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D1074" s="4" t="n">
@@ -71157,10 +71157,10 @@
       <c r="A2" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="3" t="n">
         <v>31.0</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -71212,10 +71212,10 @@
       <c r="A3" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="3" t="n">
         <v>62.0</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D3" s="3" t="inlineStr">
@@ -71267,10 +71267,10 @@
       <c r="A4" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" s="3" t="n">
         <v>92.0</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D4" s="3" t="inlineStr">
@@ -71322,10 +71322,10 @@
       <c r="A5" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="3" t="n">
         <v>92.0</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D5" s="4" t="n">
@@ -71377,10 +71377,10 @@
       <c r="A6" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="3" t="n">
         <v>93.0</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D6" s="3" t="inlineStr">
@@ -71432,10 +71432,10 @@
       <c r="A7" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="3" t="n">
         <v>94.0</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D7" s="3" t="inlineStr">
@@ -71487,10 +71487,10 @@
       <c r="A8" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="3" t="n">
         <v>94.0</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D8" s="4" t="n">
@@ -71542,10 +71542,10 @@
       <c r="A9" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="3" t="n">
         <v>95.0</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D9" s="3" t="inlineStr">
@@ -71597,10 +71597,10 @@
       <c r="A10" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="3" t="n">
         <v>95.0</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D10" s="4" t="n">
@@ -71652,10 +71652,10 @@
       <c r="A11" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="3" t="n">
         <v>96.0</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D11" s="3" t="inlineStr">
@@ -71707,10 +71707,10 @@
       <c r="A12" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="3" t="n">
         <v>96.0</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D12" s="4" t="n">
@@ -71762,10 +71762,10 @@
       <c r="A13" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="3" t="n">
         <v>97.0</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D13" s="3" t="inlineStr">
@@ -71817,10 +71817,10 @@
       <c r="A14" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="3" t="n">
         <v>97.0</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D14" s="4" t="n">
@@ -71872,10 +71872,10 @@
       <c r="A15" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="3" t="n">
         <v>98.0</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D15" s="3" t="inlineStr">
@@ -71927,10 +71927,10 @@
       <c r="A16" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="3" t="n">
         <v>98.0</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D16" s="4" t="n">
@@ -71982,10 +71982,10 @@
       <c r="A17" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="3" t="n">
         <v>99.0</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D17" s="3" t="inlineStr">
@@ -72037,10 +72037,10 @@
       <c r="A18" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="3" t="n">
         <v>99.0</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D18" s="4" t="n">
@@ -72092,10 +72092,10 @@
       <c r="A19" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="3" t="n">
         <v>124.0</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D19" s="3" t="inlineStr">
@@ -72147,10 +72147,10 @@
       <c r="A20" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="3" t="n">
         <v>133.0</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D20" s="4" t="n">
@@ -72202,10 +72202,10 @@
       <c r="A21" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="3" t="n">
         <v>155.0</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D21" s="3" t="inlineStr">
@@ -72257,10 +72257,10 @@
       <c r="A22" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="3" t="n">
         <v>186.0</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D22" s="3" t="inlineStr">
@@ -72312,10 +72312,10 @@
       <c r="A23" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="3" t="n">
         <v>192.0</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D23" s="3" t="inlineStr">
@@ -72367,10 +72367,10 @@
       <c r="A24" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="3" t="n">
         <v>192.0</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D24" s="4" t="n">
@@ -72422,10 +72422,10 @@
       <c r="A25" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="3" t="n">
         <v>193.0</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D25" s="3" t="inlineStr">
@@ -72477,10 +72477,10 @@
       <c r="A26" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="3" t="n">
         <v>193.0</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D26" s="4" t="n">
@@ -72532,10 +72532,10 @@
       <c r="A27" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="3" t="n">
         <v>194.0</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D27" s="3" t="inlineStr">
@@ -72587,10 +72587,10 @@
       <c r="A28" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="3" t="n">
         <v>194.0</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D28" s="4" t="n">
@@ -72642,10 +72642,10 @@
       <c r="A29" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="3" t="n">
         <v>195.0</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D29" s="3" t="inlineStr">
@@ -72697,10 +72697,10 @@
       <c r="A30" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="3" t="n">
         <v>195.0</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D30" s="4" t="n">
@@ -72752,10 +72752,10 @@
       <c r="A31" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="3" t="n">
         <v>196.0</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D31" s="3" t="inlineStr">
@@ -72807,10 +72807,10 @@
       <c r="A32" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="3" t="n">
         <v>196.0</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D32" s="4" t="n">
@@ -72862,10 +72862,10 @@
       <c r="A33" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="3" t="n">
         <v>197.0</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D33" s="3" t="inlineStr">
@@ -72917,10 +72917,10 @@
       <c r="A34" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="3" t="n">
         <v>197.0</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D34" s="4" t="n">
@@ -72972,10 +72972,10 @@
       <c r="A35" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="3" t="n">
         <v>198.0</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D35" s="3" t="inlineStr">
@@ -73027,10 +73027,10 @@
       <c r="A36" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="3" t="n">
         <v>198.0</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D36" s="4" t="n">
@@ -73082,10 +73082,10 @@
       <c r="A37" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="3" t="n">
         <v>199.0</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D37" s="3" t="inlineStr">
@@ -73137,10 +73137,10 @@
       <c r="A38" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="3" t="n">
         <v>199.0</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D38" s="4" t="n">
@@ -73192,10 +73192,10 @@
       <c r="A39" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="3" t="n">
         <v>217.0</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D39" s="3" t="inlineStr">
@@ -73247,10 +73247,10 @@
       <c r="A40" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="3" t="n">
         <v>248.0</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D40" s="3" t="inlineStr">
@@ -73302,10 +73302,10 @@
       <c r="A41" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="3" t="n">
         <v>266.0</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D41" s="4" t="n">
@@ -73357,10 +73357,10 @@
       <c r="A42" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="3" t="n">
         <v>279.0</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D42" s="3" t="inlineStr">
@@ -73412,10 +73412,10 @@
       <c r="A43" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="3" t="n">
         <v>292.0</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D43" s="3" t="inlineStr">
@@ -73467,10 +73467,10 @@
       <c r="A44" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44" s="3" t="n">
         <v>292.0</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D44" s="4" t="n">
@@ -73522,10 +73522,10 @@
       <c r="A45" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45" s="3" t="n">
         <v>293.0</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D45" s="3" t="inlineStr">
@@ -73577,10 +73577,10 @@
       <c r="A46" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46" s="3" t="n">
         <v>293.0</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D46" s="4" t="n">
@@ -73632,10 +73632,10 @@
       <c r="A47" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" s="3" t="n">
         <v>294.0</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D47" s="3" t="inlineStr">
@@ -73687,10 +73687,10 @@
       <c r="A48" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48" s="3" t="n">
         <v>294.0</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D48" s="4" t="n">
@@ -73742,10 +73742,10 @@
       <c r="A49" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49" s="3" t="n">
         <v>295.0</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D49" s="3" t="inlineStr">
@@ -73797,10 +73797,10 @@
       <c r="A50" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50" s="3" t="n">
         <v>295.0</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D50" s="4" t="n">
@@ -73852,10 +73852,10 @@
       <c r="A51" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" s="3" t="n">
         <v>296.0</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D51" s="3" t="inlineStr">
@@ -73907,10 +73907,10 @@
       <c r="A52" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52" s="3" t="n">
         <v>296.0</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D52" s="4" t="n">
@@ -73962,10 +73962,10 @@
       <c r="A53" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53" s="3" t="n">
         <v>297.0</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D53" s="3" t="inlineStr">
@@ -74017,10 +74017,10 @@
       <c r="A54" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54" s="3" t="n">
         <v>297.0</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D54" s="4" t="n">
@@ -74072,10 +74072,10 @@
       <c r="A55" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55" s="3" t="n">
         <v>298.0</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D55" s="3" t="inlineStr">
@@ -74127,10 +74127,10 @@
       <c r="A56" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56" s="3" t="n">
         <v>298.0</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D56" s="4" t="n">
@@ -74182,10 +74182,10 @@
       <c r="A57" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57" s="3" t="n">
         <v>299.0</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D57" s="3" t="inlineStr">
@@ -74237,10 +74237,10 @@
       <c r="A58" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58" s="3" t="n">
         <v>299.0</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D58" s="4" t="n">
@@ -74292,10 +74292,10 @@
       <c r="A59" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59" s="3" t="n">
         <v>310.0</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D59" s="3" t="inlineStr">
@@ -74347,10 +74347,10 @@
       <c r="A60" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60" s="3" t="n">
         <v>341.0</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D60" s="3" t="inlineStr">
@@ -74402,10 +74402,10 @@
       <c r="A61" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61" s="3" t="n">
         <v>372.0</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D61" s="3" t="inlineStr">
@@ -74457,10 +74457,10 @@
       <c r="A62" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62" s="3" t="n">
         <v>392.0</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D62" s="3" t="inlineStr">
@@ -74512,10 +74512,10 @@
       <c r="A63" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63" s="3" t="n">
         <v>392.0</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D63" s="4" t="n">
@@ -74567,10 +74567,10 @@
       <c r="A64" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64" s="3" t="n">
         <v>393.0</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D64" s="3" t="inlineStr">
@@ -74622,10 +74622,10 @@
       <c r="A65" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65" s="3" t="n">
         <v>393.0</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D65" s="4" t="n">
@@ -74677,10 +74677,10 @@
       <c r="A66" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66" s="3" t="n">
         <v>394.0</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D66" s="3" t="inlineStr">
@@ -74732,10 +74732,10 @@
       <c r="A67" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67" s="3" t="n">
         <v>394.0</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D67" s="4" t="n">
@@ -74787,10 +74787,10 @@
       <c r="A68" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68" s="3" t="n">
         <v>395.0</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D68" s="3" t="inlineStr">
@@ -74842,10 +74842,10 @@
       <c r="A69" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69" s="3" t="n">
         <v>395.0</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D69" s="4" t="n">
@@ -74897,10 +74897,10 @@
       <c r="A70" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70" s="3" t="n">
         <v>396.0</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D70" s="3" t="inlineStr">
@@ -74952,10 +74952,10 @@
       <c r="A71" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71" s="3" t="n">
         <v>396.0</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D71" s="4" t="n">
@@ -75007,10 +75007,10 @@
       <c r="A72" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72" s="3" t="n">
         <v>397.0</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D72" s="3" t="inlineStr">
@@ -75062,10 +75062,10 @@
       <c r="A73" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73" s="3" t="n">
         <v>397.0</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D73" s="4" t="n">
@@ -75117,10 +75117,10 @@
       <c r="A74" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74" s="3" t="n">
         <v>398.0</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D74" s="3" t="inlineStr">
@@ -75172,10 +75172,10 @@
       <c r="A75" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75" s="3" t="n">
         <v>398.0</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D75" s="4" t="n">
@@ -75227,10 +75227,10 @@
       <c r="A76" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76" s="3" t="n">
         <v>399.0</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D76" s="4" t="n">
@@ -75282,10 +75282,10 @@
       <c r="A77" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77" s="3" t="n">
         <v>403.0</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D77" s="3" t="inlineStr">
@@ -75337,10 +75337,10 @@
       <c r="A78" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78" s="3" t="n">
         <v>434.0</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D78" s="3" t="inlineStr">
@@ -75392,10 +75392,10 @@
       <c r="A79" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79" s="3" t="n">
         <v>465.0</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D79" s="3" t="inlineStr">
@@ -75447,10 +75447,10 @@
       <c r="A80" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80" s="3" t="n">
         <v>492.0</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D80" s="3" t="inlineStr">
@@ -75502,10 +75502,10 @@
       <c r="A81" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81" s="3" t="n">
         <v>492.0</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D81" s="4" t="n">
@@ -75557,10 +75557,10 @@
       <c r="A82" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82" s="3" t="n">
         <v>493.0</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D82" s="3" t="inlineStr">
@@ -75612,10 +75612,10 @@
       <c r="A83" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83" s="3" t="n">
         <v>493.0</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D83" s="4" t="n">
@@ -75667,10 +75667,10 @@
       <c r="A84" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84" s="3" t="n">
         <v>494.0</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D84" s="3" t="inlineStr">
@@ -75722,10 +75722,10 @@
       <c r="A85" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85" s="3" t="n">
         <v>494.0</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D85" s="4" t="n">
@@ -75777,10 +75777,10 @@
       <c r="A86" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86" s="3" t="n">
         <v>495.0</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D86" s="3" t="inlineStr">
@@ -75832,10 +75832,10 @@
       <c r="A87" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87" s="3" t="n">
         <v>495.0</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D87" s="4" t="n">
@@ -75887,10 +75887,10 @@
       <c r="A88" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88" s="3" t="n">
         <v>496.0</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D88" s="3" t="inlineStr">
@@ -75942,10 +75942,10 @@
       <c r="A89" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89" s="3" t="n">
         <v>497.0</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D89" s="3" t="inlineStr">
@@ -75997,10 +75997,10 @@
       <c r="A90" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90" s="3" t="n">
         <v>497.0</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D90" s="4" t="n">
@@ -76052,10 +76052,10 @@
       <c r="A91" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91" s="3" t="n">
         <v>498.0</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D91" s="3" t="inlineStr">
@@ -76107,10 +76107,10 @@
       <c r="A92" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92" s="3" t="n">
         <v>498.0</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D92" s="4" t="n">
@@ -76162,10 +76162,10 @@
       <c r="A93" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93" s="3" t="n">
         <v>499.0</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D93" s="3" t="inlineStr">
@@ -76217,10 +76217,10 @@
       <c r="A94" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94" s="3" t="n">
         <v>499.0</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D94" s="4" t="n">
@@ -76272,10 +76272,10 @@
       <c r="A95" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95" s="3" t="n">
         <v>527.0</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D95" s="3" t="inlineStr">
@@ -76327,10 +76327,10 @@
       <c r="A96" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96" s="3" t="n">
         <v>532.0</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D96" s="4" t="n">
@@ -76382,10 +76382,10 @@
       <c r="A97" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97" s="3" t="n">
         <v>558.0</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D97" s="3" t="inlineStr">
@@ -76437,10 +76437,10 @@
       <c r="A98" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98" s="3" t="n">
         <v>589.0</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D98" s="3" t="inlineStr">
@@ -76492,10 +76492,10 @@
       <c r="A99" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99" s="3" t="n">
         <v>592.0</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D99" s="3" t="inlineStr">
@@ -76547,10 +76547,10 @@
       <c r="A100" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100" s="3" t="n">
         <v>592.0</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D100" s="4" t="n">
@@ -76602,10 +76602,10 @@
       <c r="A101" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101" s="3" t="n">
         <v>593.0</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D101" s="3" t="inlineStr">
@@ -76657,10 +76657,10 @@
       <c r="A102" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102" s="3" t="n">
         <v>593.0</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D102" s="4" t="n">
@@ -76712,10 +76712,10 @@
       <c r="A103" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103" s="3" t="n">
         <v>594.0</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D103" s="3" t="inlineStr">
@@ -76767,10 +76767,10 @@
       <c r="A104" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104" s="3" t="n">
         <v>594.0</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D104" s="4" t="n">
@@ -76822,10 +76822,10 @@
       <c r="A105" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105" s="3" t="n">
         <v>595.0</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D105" s="3" t="inlineStr">
@@ -76877,10 +76877,10 @@
       <c r="A106" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106" s="3" t="n">
         <v>595.0</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D106" s="4" t="n">
@@ -76932,10 +76932,10 @@
       <c r="A107" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107" s="3" t="n">
         <v>596.0</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D107" s="3" t="inlineStr">
@@ -76987,10 +76987,10 @@
       <c r="A108" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108" s="3" t="n">
         <v>596.0</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D108" s="4" t="n">
@@ -77042,10 +77042,10 @@
       <c r="A109" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109" s="3" t="n">
         <v>597.0</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D109" s="3" t="inlineStr">
@@ -77097,10 +77097,10 @@
       <c r="A110" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110" s="3" t="n">
         <v>597.0</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D110" s="4" t="n">
@@ -77152,10 +77152,10 @@
       <c r="A111" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111" s="3" t="n">
         <v>598.0</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D111" s="3" t="inlineStr">
@@ -77207,10 +77207,10 @@
       <c r="A112" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112" s="3" t="n">
         <v>598.0</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D112" s="4" t="n">
@@ -77262,10 +77262,10 @@
       <c r="A113" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113" s="3" t="n">
         <v>599.0</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -77317,10 +77317,10 @@
       <c r="A114" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114" s="3" t="n">
         <v>599.0</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D114" s="4" t="n">
@@ -77372,10 +77372,10 @@
       <c r="A115" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115" s="3" t="n">
         <v>620.0</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D115" s="3" t="inlineStr">
@@ -77427,10 +77427,10 @@
       <c r="A116" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116" s="3" t="n">
         <v>651.0</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D116" s="3" t="inlineStr">
@@ -77482,10 +77482,10 @@
       <c r="A117" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117" s="3" t="n">
         <v>665.0</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D117" s="4" t="n">
@@ -77537,10 +77537,10 @@
       <c r="A118" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118" s="3" t="n">
         <v>682.0</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D118" s="3" t="inlineStr">
@@ -77592,10 +77592,10 @@
       <c r="A119" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119" s="3" t="n">
         <v>692.0</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D119" s="3" t="inlineStr">
@@ -77647,10 +77647,10 @@
       <c r="A120" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120" s="3" t="n">
         <v>692.0</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D120" s="4" t="n">
@@ -77702,10 +77702,10 @@
       <c r="A121" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121" s="3" t="n">
         <v>693.0</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D121" s="3" t="inlineStr">
@@ -77757,10 +77757,10 @@
       <c r="A122" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122" s="3" t="n">
         <v>693.0</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D122" s="4" t="n">
@@ -77812,10 +77812,10 @@
       <c r="A123" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123" s="3" t="n">
         <v>694.0</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D123" s="3" t="inlineStr">
@@ -77867,10 +77867,10 @@
       <c r="A124" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124" s="3" t="n">
         <v>694.0</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D124" s="4" t="n">
@@ -77922,10 +77922,10 @@
       <c r="A125" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125" s="3" t="n">
         <v>695.0</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D125" s="3" t="inlineStr">
@@ -77977,10 +77977,10 @@
       <c r="A126" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126" s="3" t="n">
         <v>695.0</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D126" s="4" t="n">
@@ -78032,10 +78032,10 @@
       <c r="A127" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127" s="3" t="n">
         <v>696.0</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D127" s="3" t="inlineStr">
@@ -78087,10 +78087,10 @@
       <c r="A128" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128" s="3" t="n">
         <v>696.0</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D128" s="4" t="n">
@@ -78142,10 +78142,10 @@
       <c r="A129" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129" s="3" t="n">
         <v>697.0</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D129" s="3" t="inlineStr">
@@ -78197,10 +78197,10 @@
       <c r="A130" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130" s="3" t="n">
         <v>697.0</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D130" s="4" t="n">
@@ -78252,10 +78252,10 @@
       <c r="A131" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131" s="3" t="n">
         <v>698.0</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D131" s="3" t="inlineStr">
@@ -78307,10 +78307,10 @@
       <c r="A132" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" s="3" t="n">
         <v>698.0</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D132" s="4" t="n">
@@ -78362,10 +78362,10 @@
       <c r="A133" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133" s="3" t="n">
         <v>699.0</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D133" s="3" t="inlineStr">
@@ -78417,10 +78417,10 @@
       <c r="A134" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134" s="3" t="n">
         <v>699.0</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D134" s="4" t="n">
@@ -78472,10 +78472,10 @@
       <c r="A135" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135" s="3" t="n">
         <v>713.0</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D135" s="3" t="inlineStr">
@@ -78527,10 +78527,10 @@
       <c r="A136" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136" s="3" t="n">
         <v>744.0</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D136" s="3" t="inlineStr">
@@ -78582,10 +78582,10 @@
       <c r="A137" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137" s="3" t="n">
         <v>775.0</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D137" s="3" t="inlineStr">
@@ -78637,10 +78637,10 @@
       <c r="A138" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138" s="3" t="n">
         <v>792.0</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D138" s="3" t="inlineStr">
@@ -78692,10 +78692,10 @@
       <c r="A139" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139" s="3" t="n">
         <v>792.0</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D139" s="4" t="n">
@@ -78747,10 +78747,10 @@
       <c r="A140" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140" s="3" t="n">
         <v>793.0</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D140" s="3" t="inlineStr">
@@ -78802,10 +78802,10 @@
       <c r="A141" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141" s="3" t="n">
         <v>793.0</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D141" s="4" t="n">
@@ -78857,10 +78857,10 @@
       <c r="A142" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142" s="3" t="n">
         <v>794.0</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D142" s="3" t="inlineStr">
@@ -78912,10 +78912,10 @@
       <c r="A143" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143" s="3" t="n">
         <v>794.0</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D143" s="4" t="n">
@@ -78967,10 +78967,10 @@
       <c r="A144" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144" s="3" t="n">
         <v>795.0</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D144" s="3" t="inlineStr">
@@ -79022,10 +79022,10 @@
       <c r="A145" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145" s="3" t="n">
         <v>795.0</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D145" s="4" t="n">
@@ -79077,10 +79077,10 @@
       <c r="A146" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146" s="3" t="n">
         <v>796.0</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D146" s="3" t="inlineStr">
@@ -79132,10 +79132,10 @@
       <c r="A147" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147" s="3" t="n">
         <v>796.0</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D147" s="4" t="n">
@@ -79187,10 +79187,10 @@
       <c r="A148" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148" s="3" t="n">
         <v>797.0</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D148" s="3" t="inlineStr">
@@ -79242,10 +79242,10 @@
       <c r="A149" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149" s="3" t="n">
         <v>797.0</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D149" s="4" t="n">
@@ -79297,10 +79297,10 @@
       <c r="A150" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150" s="3" t="n">
         <v>798.0</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D150" s="4" t="n">
@@ -79352,10 +79352,10 @@
       <c r="A151" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151" s="3" t="n">
         <v>799.0</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D151" s="3" t="inlineStr">
@@ -79407,10 +79407,10 @@
       <c r="A152" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152" s="3" t="n">
         <v>799.0</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D152" s="4" t="n">
@@ -79462,10 +79462,10 @@
       <c r="A153" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153" s="3" t="n">
         <v>806.0</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D153" s="3" t="inlineStr">
@@ -79517,10 +79517,10 @@
       <c r="A154" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154" s="3" t="n">
         <v>837.0</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D154" s="3" t="inlineStr">
@@ -79572,10 +79572,10 @@
       <c r="A155" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155" s="3" t="n">
         <v>868.0</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D155" s="3" t="inlineStr">
@@ -79627,10 +79627,10 @@
       <c r="A156" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156" s="3" t="n">
         <v>892.0</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D156" s="3" t="inlineStr">
@@ -79682,10 +79682,10 @@
       <c r="A157" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157" s="3" t="n">
         <v>892.0</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D157" s="4" t="n">
@@ -79737,10 +79737,10 @@
       <c r="A158" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" s="3" t="n">
         <v>893.0</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D158" s="3" t="inlineStr">
@@ -79792,10 +79792,10 @@
       <c r="A159" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159" s="3" t="n">
         <v>893.0</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D159" s="4" t="n">
@@ -79847,10 +79847,10 @@
       <c r="A160" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160" s="3" t="n">
         <v>894.0</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D160" s="3" t="inlineStr">
@@ -79902,10 +79902,10 @@
       <c r="A161" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161" s="3" t="n">
         <v>894.0</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D161" s="4" t="n">
@@ -79957,10 +79957,10 @@
       <c r="A162" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162" s="3" t="n">
         <v>895.0</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D162" s="3" t="inlineStr">
@@ -80012,10 +80012,10 @@
       <c r="A163" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163" s="3" t="n">
         <v>895.0</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D163" s="4" t="n">
@@ -80067,10 +80067,10 @@
       <c r="A164" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164" s="3" t="n">
         <v>896.0</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D164" s="3" t="inlineStr">
@@ -80122,10 +80122,10 @@
       <c r="A165" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165" s="3" t="n">
         <v>896.0</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D165" s="4" t="n">
@@ -80177,10 +80177,10 @@
       <c r="A166" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166" s="3" t="n">
         <v>897.0</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D166" s="3" t="inlineStr">
@@ -80232,10 +80232,10 @@
       <c r="A167" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167" s="3" t="n">
         <v>897.0</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D167" s="4" t="n">
@@ -80287,10 +80287,10 @@
       <c r="A168" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168" s="3" t="n">
         <v>898.0</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D168" s="3" t="inlineStr">
@@ -80342,10 +80342,10 @@
       <c r="A169" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169" s="3" t="n">
         <v>898.0</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D169" s="4" t="n">
@@ -80397,10 +80397,10 @@
       <c r="A170" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170" s="3" t="n">
         <v>899.0</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D170" s="3" t="inlineStr">
@@ -80452,10 +80452,10 @@
       <c r="A171" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171" s="3" t="n">
         <v>930.0</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D171" s="3" t="inlineStr">
@@ -80507,10 +80507,10 @@
       <c r="A172" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172" s="3" t="n">
         <v>931.0</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D172" s="4" t="n">
@@ -80562,10 +80562,10 @@
       <c r="A173" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173" s="3" t="n">
         <v>961.0</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D173" s="3" t="inlineStr">
@@ -80617,10 +80617,10 @@
       <c r="A174" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174" s="3" t="n">
         <v>992.0</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D174" s="3" t="inlineStr">
@@ -80672,10 +80672,10 @@
       <c r="A175" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175" s="3" t="n">
         <v>993.0</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D175" s="3" t="inlineStr">
@@ -80727,10 +80727,10 @@
       <c r="A176" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176" s="3" t="n">
         <v>993.0</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176" s="3" t="n">
         <v>7.0</v>
       </c>
       <c r="D176" s="4" t="n">
@@ -80782,10 +80782,10 @@
       <c r="A177" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177" s="3" t="n">
         <v>994.0</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177" s="3" t="n">
         <v>-1.0</v>
       </c>
       <c r="D177" s="3" t="inlineStr">
@@ -80837,10 +80837,10 @@
       <c r="A178" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178" s="3" t="n">
         <v>994.0</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D178" s="4" t="n">
@@ -80892,10 +80892,10 @@
       <c r="A179" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179" s="3" t="n">
         <v>995.0</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179" s="3" t="n">
         <v>0.0</v>
       </c>
       <c r="D179" s="3" t="inlineStr">
@@ -80947,10 +80947,10 @@
       <c r="A180" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180" s="3" t="n">
         <v>995.0</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D180" s="4" t="n">
@@ -81002,10 +81002,10 @@
       <c r="A181" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181" s="3" t="n">
         <v>996.0</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181" s="3" t="n">
         <v>1.0</v>
       </c>
       <c r="D181" s="3" t="inlineStr">
@@ -81057,10 +81057,10 @@
       <c r="A182" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182" s="3" t="n">
         <v>996.0</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D182" s="4" t="n">
@@ -81112,10 +81112,10 @@
       <c r="A183" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183" s="3" t="n">
         <v>997.0</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183" s="3" t="n">
         <v>2.0</v>
       </c>
       <c r="D183" s="3" t="inlineStr">
@@ -81167,10 +81167,10 @@
       <c r="A184" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184" s="3" t="n">
         <v>997.0</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D184" s="4" t="n">
@@ -81222,10 +81222,10 @@
       <c r="A185" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185" s="3" t="n">
         <v>998.0</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185" s="3" t="n">
         <v>3.0</v>
       </c>
       <c r="D185" s="3" t="inlineStr">
@@ -81277,10 +81277,10 @@
       <c r="A186" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186" s="3" t="n">
         <v>998.0</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186" s="3" t="n">
         <v>5.0</v>
       </c>
       <c r="D186" s="4" t="n">
@@ -81332,10 +81332,10 @@
       <c r="A187" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187" s="3" t="n">
         <v>999.0</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187" s="3" t="n">
         <v>4.0</v>
       </c>
       <c r="D187" s="3" t="inlineStr">
@@ -81387,10 +81387,10 @@
       <c r="A188" s="3" t="n">
         <v>5.0</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188" s="3" t="n">
         <v>999.0</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188" s="3" t="n">
         <v>6.0</v>
       </c>
       <c r="D188" s="4" t="n">
